--- a/Washington/WaterAllocation/WA_Allocation Schema Mapping_WaDEQA.xlsx
+++ b/Washington/WaterAllocation/WA_Allocation Schema Mapping_WaDEQA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\State Mapping Projects\WA Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Washington\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE46E65-7AE0-4A01-8448-62EE96559A4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3363BC-9099-4718-BC71-58A789287EB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="714" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="714" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="336">
   <si>
     <t>AllocationAmount</t>
   </si>
@@ -1062,27 +1062,6 @@
   </si>
   <si>
     <t>1) Joined PoD data -to- bridge table -to- Use and Person data.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Geographic Water Information System (GWIS)Data from the WA stat: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://fortress.wa.gov/ecy/gispublic/DataDownload/wr/GWIS_Data/</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1131,6 +1110,30 @@
   </si>
   <si>
     <t>3) Some WRs had too many sites and had to be removed (see allocations_missing).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Geographic Water Information System (GWIS) Data from the WA state: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://fortress.wa.gov/ecy/gispublic/DataDownload/wr/GWIS_Data/</t>
+    </r>
+  </si>
+  <si>
+    <t>4) Input data has roughly 74,184 duplicate rows.  Need to ask MT if that is suppose to happen or if it was by accident.</t>
   </si>
 </sst>
 </file>
@@ -2527,10 +2530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7154D4B-C952-456C-B506-1C3DB2041E3D}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2560,17 +2563,17 @@
         <v>244</v>
       </c>
       <c r="B6" s="92" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" s="92" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" s="92" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2586,12 +2589,17 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>334</v>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>

--- a/Washington/WaterAllocation/WA_Allocation Schema Mapping_WaDEQA.xlsx
+++ b/Washington/WaterAllocation/WA_Allocation Schema Mapping_WaDEQA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Washington\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3363BC-9099-4718-BC71-58A789287EB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEB5E1B-7FB2-4B7A-AE0A-C7F6A7E63CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="714" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12576" tabRatio="714" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -40,10 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="336">
-  <si>
-    <t>AllocationAmount</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="342">
   <si>
     <t>Name</t>
   </si>
@@ -310,9 +307,6 @@
   </si>
   <si>
     <t>AllocationCropDutyAmount</t>
-  </si>
-  <si>
-    <t>AllocationMaximum</t>
   </si>
   <si>
     <t>PopulationServed</t>
@@ -1133,7 +1127,31 @@
     </r>
   </si>
   <si>
-    <t>4) Input data has roughly 74,184 duplicate rows.  Need to ask MT if that is suppose to happen or if it was by accident.</t>
+    <t>OwnerClassificationCV</t>
+  </si>
+  <si>
+    <t>Army (USA)</t>
+  </si>
+  <si>
+    <t>WSWC defined owner tag.</t>
+  </si>
+  <si>
+    <t>PODorPOUSite</t>
+  </si>
+  <si>
+    <t>POD</t>
+  </si>
+  <si>
+    <t>RegulatoryOverlayUUIDs</t>
+  </si>
+  <si>
+    <t>AllocationFlow_CFS</t>
+  </si>
+  <si>
+    <t>AllocationVolume_AF</t>
+  </si>
+  <si>
+    <t>Have to convert from epsg:2927 - to - epsg:4326 in order for lat and long to work in WaDE 2.0.</t>
   </si>
 </sst>
 </file>
@@ -1575,7 +1593,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1854,6 +1872,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1900,7 +1949,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2034,9 +2083,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2083,12 +2129,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2112,24 +2152,9 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2174,6 +2199,69 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2533,73 +2621,73 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="78" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="70" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="70" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="70" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="70" t="s">
         <v>242</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B6" s="84" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="84" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="78" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="84" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="83"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="70" t="s">
         <v>243</v>
       </c>
-      <c r="B2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="78" t="s">
-        <v>244</v>
-      </c>
-      <c r="B6" s="92" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="92" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="92" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="91"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="78" t="s">
-        <v>245</v>
-      </c>
       <c r="B13" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -2645,316 +2733,316 @@
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" s="17">
         <v>11</v>
       </c>
-      <c r="J3" s="69" t="s">
-        <v>175</v>
+      <c r="J3" s="66" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="64" t="s">
-        <v>246</v>
-      </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="47"/>
+        <v>38</v>
+      </c>
+      <c r="E4" s="61" t="s">
+        <v>244</v>
+      </c>
+      <c r="F4" s="45"/>
+      <c r="G4" s="46"/>
       <c r="H4" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="J4" s="69" t="s">
-        <v>194</v>
+        <v>139</v>
+      </c>
+      <c r="J4" s="66" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="21"/>
       <c r="H5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="J5" s="69" t="s">
-        <v>220</v>
+        <v>108</v>
+      </c>
+      <c r="J5" s="66" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="21"/>
       <c r="H6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="77">
+        <v>38</v>
+      </c>
+      <c r="I6" s="69">
         <v>0.5</v>
       </c>
-      <c r="J6" s="69" t="s">
-        <v>177</v>
+      <c r="J6" s="66" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="21"/>
       <c r="H7" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="69" t="s">
-        <v>176</v>
+        <v>38</v>
+      </c>
+      <c r="J7" s="66" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="21"/>
       <c r="H8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="J8" s="69" t="s">
-        <v>222</v>
+        <v>214</v>
+      </c>
+      <c r="J8" s="66" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="21"/>
       <c r="H9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" s="18"/>
-      <c r="J9" s="69" t="s">
-        <v>217</v>
+      <c r="J9" s="66" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
       <c r="H10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="J10" s="69" t="s">
-        <v>174</v>
+        <v>143</v>
+      </c>
+      <c r="J10" s="66" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
       <c r="H11" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="J11" s="69" t="s">
-        <v>178</v>
+        <v>107</v>
+      </c>
+      <c r="J11" s="66" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
       <c r="H12" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="J12" s="69" t="s">
-        <v>221</v>
+        <v>109</v>
+      </c>
+      <c r="J12" s="66" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -2998,102 +3086,102 @@
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="33"/>
       <c r="F3" s="33"/>
       <c r="G3" s="34"/>
       <c r="H3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" s="17">
         <v>16</v>
       </c>
-      <c r="J3" s="69" t="s">
-        <v>175</v>
+      <c r="J3" s="66" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="46" t="s">
-        <v>251</v>
-      </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="47"/>
+        <v>38</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="F4" s="45"/>
+      <c r="G4" s="46"/>
       <c r="H4" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="J4" s="69" t="s">
-        <v>179</v>
+        <v>140</v>
+      </c>
+      <c r="J4" s="66" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="17">
         <v>1</v>
@@ -3101,139 +3189,139 @@
       <c r="F5" s="20"/>
       <c r="G5" s="21"/>
       <c r="H5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5" s="17">
         <v>1</v>
       </c>
-      <c r="J5" s="69" t="s">
-        <v>180</v>
+      <c r="J5" s="66" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="21"/>
       <c r="H6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="J6" s="69" t="s">
-        <v>181</v>
+        <v>111</v>
+      </c>
+      <c r="J6" s="66" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="21"/>
       <c r="H7" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="J7" s="69" t="s">
-        <v>223</v>
+        <v>110</v>
+      </c>
+      <c r="J7" s="66" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="21"/>
       <c r="H8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="J8" s="69" t="s">
-        <v>224</v>
+        <v>113</v>
+      </c>
+      <c r="J8" s="66" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="21"/>
       <c r="H9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="J9" s="69" t="s">
-        <v>218</v>
+        <v>114</v>
+      </c>
+      <c r="J9" s="66" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="17">
         <v>10</v>
@@ -3241,97 +3329,97 @@
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
       <c r="H10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" s="17">
         <v>10</v>
       </c>
-      <c r="J10" s="69" t="s">
-        <v>182</v>
+      <c r="J10" s="66" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
       <c r="H11" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="J11" s="69" t="s">
-        <v>225</v>
+        <v>112</v>
+      </c>
+      <c r="J11" s="66" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
       <c r="H12" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="J12" s="69" t="s">
-        <v>226</v>
+        <v>144</v>
+      </c>
+      <c r="J12" s="66" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="21"/>
       <c r="H13" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="J13" s="69" t="s">
-        <v>219</v>
+        <v>115</v>
+      </c>
+      <c r="J13" s="66" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3375,318 +3463,318 @@
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" s="18">
         <v>1</v>
       </c>
-      <c r="J3" s="69" t="s">
-        <v>175</v>
+      <c r="J3" s="66" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>259</v>
-      </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="47"/>
+        <v>257</v>
+      </c>
+      <c r="F4" s="45"/>
+      <c r="G4" s="46"/>
       <c r="H4" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="J4" s="69" t="s">
-        <v>183</v>
+        <v>126</v>
+      </c>
+      <c r="J4" s="66" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="21"/>
       <c r="H5" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="J5" s="69" t="s">
-        <v>184</v>
+        <v>130</v>
+      </c>
+      <c r="J5" s="66" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="21"/>
       <c r="H6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="J6" s="69" t="s">
-        <v>185</v>
+        <v>129</v>
+      </c>
+      <c r="J6" s="66" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="48" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="21"/>
       <c r="H7" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="J7" s="69" t="s">
-        <v>186</v>
+        <v>127</v>
+      </c>
+      <c r="J7" s="66" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="21"/>
       <c r="H8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="J8" s="69" t="s">
-        <v>187</v>
+        <v>147</v>
+      </c>
+      <c r="J8" s="66" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="21"/>
       <c r="H9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="J9" s="69" t="s">
-        <v>188</v>
+        <v>128</v>
+      </c>
+      <c r="J9" s="66" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="84" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
       <c r="H10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="J10" s="69" t="s">
-        <v>189</v>
+        <v>148</v>
+      </c>
+      <c r="J10" s="66" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
       <c r="H11" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="J11" s="69" t="s">
-        <v>190</v>
+        <v>127</v>
+      </c>
+      <c r="J11" s="66" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
       <c r="H12" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="J12" s="69" t="s">
-        <v>191</v>
+        <v>131</v>
+      </c>
+      <c r="J12" s="66" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
@@ -3727,7 +3815,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3754,246 +3842,274 @@
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="48" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>38</v>
       </c>
       <c r="H3" s="19"/>
       <c r="I3" s="17">
         <v>34658</v>
       </c>
-      <c r="J3" s="69" t="s">
-        <v>175</v>
+      <c r="J3" s="66" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>261</v>
-      </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="49"/>
+        <v>38</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>259</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>38</v>
+      </c>
       <c r="H4" s="19"/>
       <c r="I4" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="J4" s="69" t="s">
-        <v>193</v>
+        <v>116</v>
+      </c>
+      <c r="J4" s="66" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="C5" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="79" t="s">
-        <v>162</v>
-      </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="21"/>
+        <v>38</v>
+      </c>
+      <c r="E5" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>38</v>
+      </c>
       <c r="H5" s="19"/>
       <c r="I5" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="69" t="s">
-        <v>167</v>
+        <v>38</v>
+      </c>
+      <c r="J5" s="66" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="79" t="s">
-        <v>162</v>
-      </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="21"/>
+        <v>20</v>
+      </c>
+      <c r="E6" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>38</v>
+      </c>
       <c r="H6" s="19"/>
       <c r="I6" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="69" t="s">
-        <v>227</v>
+        <v>38</v>
+      </c>
+      <c r="J6" s="66" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="21"/>
+        <v>118</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>38</v>
+      </c>
       <c r="H7" s="19"/>
       <c r="I7" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="J7" s="69" t="s">
-        <v>228</v>
+        <v>118</v>
+      </c>
+      <c r="J7" s="66" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="79" t="s">
-        <v>267</v>
-      </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="21"/>
+        <v>38</v>
+      </c>
+      <c r="E8" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>38</v>
+      </c>
       <c r="H8" s="23"/>
       <c r="I8" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="J8" s="69" t="s">
-        <v>195</v>
+        <v>190</v>
+      </c>
+      <c r="J8" s="66" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="79" t="s">
-        <v>162</v>
-      </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="21"/>
+        <v>38</v>
+      </c>
+      <c r="E9" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>38</v>
+      </c>
       <c r="H9" s="19"/>
       <c r="I9" s="17">
         <v>17839</v>
       </c>
-      <c r="J9" s="69" t="s">
-        <v>196</v>
+      <c r="J9" s="66" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="80"/>
-      <c r="F10" s="60"/>
+        <v>20</v>
+      </c>
+      <c r="E10" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="59" t="s">
+        <v>38</v>
+      </c>
       <c r="G10" s="21" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H10" s="23"/>
       <c r="I10" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="J10" s="69" t="s">
-        <v>229</v>
+        <v>108</v>
+      </c>
+      <c r="J10" s="66" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4015,10 +4131,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E7F0DF-14BE-4BB8-BB6C-8815808B0B66}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4045,609 +4161,683 @@
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="19"/>
       <c r="I3" s="18">
         <v>39035</v>
       </c>
-      <c r="J3" s="69" t="s">
-        <v>165</v>
+      <c r="J3" s="66" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>261</v>
-      </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="47"/>
+        <v>38</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>259</v>
+      </c>
+      <c r="F4" s="45"/>
+      <c r="G4" s="46"/>
       <c r="H4" s="19"/>
       <c r="I4" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="J4" s="69" t="s">
-        <v>166</v>
+        <v>119</v>
+      </c>
+      <c r="J4" s="66" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="192" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="81" t="s">
-        <v>265</v>
+        <v>38</v>
+      </c>
+      <c r="E5" s="73" t="s">
+        <v>263</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="21" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="J5" s="69" t="s">
-        <v>234</v>
+        <v>117</v>
+      </c>
+      <c r="J5" s="66" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="81" t="s">
-        <v>263</v>
+        <v>20</v>
+      </c>
+      <c r="E6" s="73" t="s">
+        <v>261</v>
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="27" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="J6" s="69" t="s">
-        <v>230</v>
+        <v>124</v>
+      </c>
+      <c r="J6" s="66" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="70" t="s">
-        <v>164</v>
+        <v>38</v>
+      </c>
+      <c r="J7" s="67" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="27"/>
       <c r="H8" s="23"/>
       <c r="I8" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="J8" s="69" t="s">
-        <v>168</v>
+        <v>125</v>
+      </c>
+      <c r="J8" s="66" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="C9" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="18"/>
-      <c r="J9" s="69" t="s">
-        <v>167</v>
+      <c r="J9" s="66" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="69" t="s">
-        <v>169</v>
+        <v>38</v>
+      </c>
+      <c r="J10" s="66" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="19"/>
       <c r="I11" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="70" t="s">
-        <v>164</v>
+        <v>38</v>
+      </c>
+      <c r="J11" s="67" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="70" t="s">
-        <v>164</v>
+        <v>38</v>
+      </c>
+      <c r="J12" s="67" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="25" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="83" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="85" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="86" t="s">
-        <v>312</v>
-      </c>
-      <c r="F13" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="87" t="s">
-        <v>311</v>
-      </c>
-      <c r="I13" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="J13" s="89" t="s">
-        <v>170</v>
+        <v>55</v>
+      </c>
+      <c r="B13" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="78" t="s">
+        <v>310</v>
+      </c>
+      <c r="F13" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="79" t="s">
+        <v>309</v>
+      </c>
+      <c r="I13" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" s="81" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="25" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="83" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="85" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="86" t="s">
-        <v>312</v>
-      </c>
-      <c r="F14" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="87" t="s">
-        <v>313</v>
-      </c>
-      <c r="I14" s="88">
+        <v>54</v>
+      </c>
+      <c r="B14" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="78" t="s">
+        <v>310</v>
+      </c>
+      <c r="F14" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="79" t="s">
+        <v>311</v>
+      </c>
+      <c r="I14" s="80">
         <v>-1067.700435</v>
       </c>
-      <c r="J14" s="89" t="s">
-        <v>171</v>
+      <c r="J14" s="81" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" s="69" t="s">
-        <v>231</v>
+        <v>38</v>
+      </c>
+      <c r="J15" s="66" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16" s="69" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="79" t="s">
-        <v>267</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="J17" s="69" t="s">
-        <v>172</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="J16" s="66" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="53" t="s">
+        <v>336</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="94" t="s">
+        <v>337</v>
+      </c>
+      <c r="J17" s="83"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="53" t="s">
+        <v>338</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="53"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="18">
-        <v>3703994</v>
-      </c>
-      <c r="J18" s="69" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="B19" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>19</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C19" s="9"/>
       <c r="D19" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
+        <v>38</v>
+      </c>
+      <c r="E19" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>38</v>
+      </c>
       <c r="H19" s="19"/>
       <c r="I19" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="J19" s="70" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="84" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="J19" s="66" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="61" t="s">
-        <v>264</v>
+        <v>18</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>38</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>326</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="J20" s="69" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="H20" s="23"/>
+      <c r="I20" s="18">
+        <v>3703994</v>
+      </c>
+      <c r="J20" s="66" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>39</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="62"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27"/>
       <c r="H21" s="19"/>
       <c r="I21" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="J21" s="69" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+      <c r="J21" s="67" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="84" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="95" t="s">
+        <v>262</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="J22" s="66" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="J23" s="66" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J24" s="67" t="s">
         <v>162</v>
       </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="J22" s="70" t="s">
-        <v>164</v>
+    </row>
+    <row r="25" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="J25" s="66" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:J26">
-    <sortCondition ref="A5:A26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:J25">
+    <sortCondition ref="A5:A25"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4656,10 +4846,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F32" sqref="F31:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4668,7 +4858,7 @@
     <col min="2" max="2" width="13" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.77734375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" style="5" customWidth="1"/>
     <col min="6" max="6" width="18.88671875" style="5" customWidth="1"/>
     <col min="7" max="7" width="34.21875" style="5" customWidth="1"/>
     <col min="8" max="8" width="18.109375" style="5" customWidth="1"/>
@@ -4686,1369 +4876,1443 @@
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="57" t="s">
-        <v>20</v>
+    </row>
+    <row r="3" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>19</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="37"/>
       <c r="G3" s="38"/>
       <c r="H3" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="87">
+        <v>50004</v>
+      </c>
+      <c r="J3" s="85" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="87">
+        <v>43</v>
+      </c>
+      <c r="J4" s="85" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="87">
+        <v>1</v>
+      </c>
+      <c r="J5" s="85" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="87">
+        <v>39035</v>
+      </c>
+      <c r="J6" s="85" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="87">
+        <v>63</v>
+      </c>
+      <c r="J7" s="85" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="71">
-        <v>50004</v>
-      </c>
-      <c r="J3" s="69" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="54" t="s">
+      <c r="B8" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="87">
+        <v>371091</v>
+      </c>
+      <c r="J8" s="85" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="71">
-        <v>43</v>
-      </c>
-      <c r="J4" s="69" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="71">
-        <v>1</v>
-      </c>
-      <c r="J5" s="69" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="71">
-        <v>39035</v>
-      </c>
-      <c r="J6" s="69" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="71">
-        <v>63</v>
-      </c>
-      <c r="J7" s="69" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="71">
-        <v>371091</v>
-      </c>
-      <c r="J8" s="69" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="63"/>
+      <c r="B9" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="60"/>
       <c r="F9" s="36"/>
-      <c r="G9" s="51"/>
+      <c r="G9" s="50"/>
       <c r="H9" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="69" t="s">
-        <v>194</v>
+        <v>38</v>
+      </c>
+      <c r="I9" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="85" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="65"/>
+        <v>38</v>
+      </c>
+      <c r="E10" s="62"/>
       <c r="F10" s="26"/>
       <c r="G10" s="27"/>
       <c r="H10" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="69" t="s">
-        <v>197</v>
+        <v>38</v>
+      </c>
+      <c r="I10" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="85" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="26"/>
       <c r="G11" s="27"/>
       <c r="H11" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="69" t="s">
-        <v>198</v>
+        <v>38</v>
+      </c>
+      <c r="I11" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="85" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="97" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="99" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="100"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="85" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C13" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="87">
+        <v>5363</v>
+      </c>
+      <c r="J13" s="85" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="62"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="69" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="41" t="s">
+      <c r="C14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" s="86" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="69" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="39" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="21" t="s">
-        <v>318</v>
-      </c>
-      <c r="H14" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="18">
-        <v>1</v>
-      </c>
-      <c r="J14" s="69" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="B15" s="55" t="s">
+      <c r="C15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" s="86" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="71">
-        <v>5363</v>
-      </c>
-      <c r="J15" s="69" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>39</v>
+      <c r="C16" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>20</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="J16" s="70" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="I16" s="87" t="s">
+        <v>156</v>
+      </c>
+      <c r="J16" s="85" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>95</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="J17" s="86" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="J18" s="85" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="26" t="s">
+      <c r="C19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="86" t="s">
         <v>162</v>
       </c>
-      <c r="F17" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="J17" s="70" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="39" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A18" s="54" t="s">
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="17">
+        <v>5200</v>
+      </c>
+      <c r="J20" s="85" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="36" x14ac:dyDescent="0.3">
+      <c r="A21" s="103" t="s">
+        <v>339</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="F21" s="36"/>
+      <c r="G21" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="H21" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="17">
+        <v>1</v>
+      </c>
+      <c r="J21" s="85" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="B18" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" s="71" t="s">
-        <v>158</v>
-      </c>
-      <c r="J18" s="69" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="J19" s="70" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="J20" s="69" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" s="70" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>155</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="H22" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="J22" s="85" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="H23" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="J23" s="85" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="59" t="s">
+        <v>320</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="H24" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="J24" s="85" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="H25" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="J25" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" s="85" t="s">
+        <v>238</v>
+      </c>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="82" t="s">
+        <v>313</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="90">
+        <v>44196</v>
+      </c>
+      <c r="J27" s="85" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="82" t="s">
+        <v>312</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" s="90">
+        <v>43831</v>
+      </c>
+      <c r="J28" s="85" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="65"/>
+      <c r="F29" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="H29" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="J29" s="86" t="s">
         <v>162</v>
       </c>
-      <c r="F22" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="18">
-        <v>5200</v>
-      </c>
-      <c r="J22" s="69" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>323</v>
-      </c>
-      <c r="H23" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="J23" s="69" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="H24" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I24" s="18">
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="103" t="s">
+        <v>340</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="H30" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="17">
         <v>0</v>
       </c>
-      <c r="J24" s="69" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="H25" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="J25" s="69" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="65" t="s">
-        <v>322</v>
-      </c>
-      <c r="F26" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="H26" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="J26" s="69" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B27" s="6" t="s">
+      <c r="J30" s="85" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="H27" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="J27" s="69" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="39" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="26" t="s">
+      <c r="C31" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="H31" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="J31" s="85" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="F32" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="J32" s="86" t="s">
         <v>162</v>
       </c>
-      <c r="F28" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H28" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I28" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="J28" s="69" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="90" t="s">
-        <v>315</v>
-      </c>
-      <c r="F29" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H29" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I29" s="74">
-        <v>44196</v>
-      </c>
-      <c r="J29" s="69" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="90" t="s">
-        <v>314</v>
-      </c>
-      <c r="F30" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H30" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I30" s="74">
-        <v>43831</v>
-      </c>
-      <c r="J30" s="69" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="68"/>
-      <c r="F31" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>321</v>
-      </c>
-      <c r="H31" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I31" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="J31" s="70" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="68" t="s">
-        <v>269</v>
-      </c>
-      <c r="F32" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="H32" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I32" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="J32" s="69" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>38</v>
       </c>
       <c r="H33" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I33" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="J33" s="70" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="J33" s="85" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>100</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E34" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="F34" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="J34" s="85" t="s">
+        <v>236</v>
+      </c>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="53"/>
+      <c r="P34" s="53"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="B35" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="64" t="s">
+        <v>314</v>
+      </c>
+      <c r="F35" s="36"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I35" s="91">
+        <v>43874</v>
+      </c>
+      <c r="J35" s="85" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="F36" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="92">
+        <v>33187</v>
+      </c>
+      <c r="J36" s="86" t="s">
         <v>162</v>
       </c>
-      <c r="F34" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H34" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I34" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="J34" s="69" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="54" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="26" t="s">
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="F37" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="J37" s="85" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="H38" s="39"/>
+      <c r="I38" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="J38" s="85" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="F39" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="J39" s="85" t="s">
+        <v>239</v>
+      </c>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="F40" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I40" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="J40" s="86" t="s">
         <v>162</v>
       </c>
-      <c r="F35" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H35" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I35" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="J35" s="69" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="B36" s="55" t="s">
+    </row>
+    <row r="41" spans="1:16" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="67" t="s">
-        <v>316</v>
-      </c>
-      <c r="F36" s="36"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I36" s="75">
-        <v>43874</v>
-      </c>
-      <c r="J36" s="69" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="F37" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G37" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H37" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I37" s="76">
-        <v>33187</v>
-      </c>
-      <c r="J37" s="70" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="F38" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G38" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H38" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I38" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="J38" s="69" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F39" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G39" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="H39" s="39"/>
-      <c r="I39" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="J39" s="69" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="F40" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G40" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H40" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I40" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="J40" s="69" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="C41" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E41" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="F41" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G41" s="21" t="s">
-        <v>39</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="105"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="104"/>
       <c r="H41" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I41" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="J41" s="70" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="I41" s="89" t="s">
+        <v>334</v>
+      </c>
+      <c r="J41" s="85" t="s">
+        <v>335</v>
+      </c>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>91</v>
+        <v>333</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E42" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I42" s="89" t="s">
+        <v>334</v>
+      </c>
+      <c r="J42" s="85" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="F43" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43" s="85" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="F44" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="J44" s="86" t="s">
         <v>162</v>
       </c>
-      <c r="F42" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G42" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H42" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I42" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="J42" s="69" t="s">
+      <c r="K44" s="53"/>
+      <c r="L44" s="53"/>
+      <c r="M44" s="53"/>
+      <c r="N44" s="53"/>
+      <c r="O44" s="53"/>
+      <c r="P44" s="53"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="B45" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="F45" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="87" t="s">
+        <v>132</v>
+      </c>
+      <c r="J45" s="85" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="F46" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="J46" s="85" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="F43" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G43" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H43" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I43" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="J43" s="70" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="B44" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="C44" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="E44" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="F44" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G44" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H44" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I44" s="71" t="s">
-        <v>134</v>
-      </c>
-      <c r="J44" s="69" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="F45" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G45" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H45" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I45" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="J45" s="69" t="s">
-        <v>215</v>
-      </c>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:J45">
-    <sortCondition ref="A14:A45"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:P46">
+    <sortCondition ref="A13:A46"/>
   </sortState>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6066,209 +6330,209 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" style="82" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" style="74" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="74" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" s="63"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="74" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" s="63"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="74" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="66"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="82" t="s">
+      <c r="B3" s="63"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="74" t="s">
         <v>271</v>
       </c>
-      <c r="B2" s="66"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="82" t="s">
+      <c r="B4" s="63"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="74" t="s">
         <v>272</v>
       </c>
-      <c r="B3" s="66"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="82" t="s">
+      <c r="B5" s="63"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="74" t="s">
         <v>273</v>
       </c>
-      <c r="B4" s="66"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="82" t="s">
+      <c r="B6" s="63"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="74" t="s">
         <v>274</v>
       </c>
-      <c r="B5" s="66"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="82" t="s">
+      <c r="B7" s="63"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="74" t="s">
         <v>275</v>
       </c>
-      <c r="B6" s="66"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="82" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="74" t="s">
         <v>276</v>
       </c>
-      <c r="B7" s="66"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="82" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="74" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="82" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="74" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="82" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="74" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="82" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="74" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="82" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="74" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="82" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="74" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="82" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="74" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="82" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="74" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="82" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="74" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="82" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="74" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="82" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="74" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="82" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="74" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="82" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="74" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="82" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="74" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="82" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="74" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="82" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="74" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="82" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="74" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="82" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="74" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="82" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="74" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="82" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="74" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="82" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="74" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="82" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="74" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="82" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="74" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="82" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="74" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="82" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="74" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="82" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="74" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="82" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="74" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="82" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="74" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="82" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="74" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="82" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="74" t="s">
         <v>306</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="82" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="82" t="s">
-        <v>308</v>
       </c>
     </row>
   </sheetData>

--- a/Washington/WaterAllocation/WA_Allocation Schema Mapping_WaDEQA.xlsx
+++ b/Washington/WaterAllocation/WA_Allocation Schema Mapping_WaDEQA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Washington\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEB5E1B-7FB2-4B7A-AE0A-C7F6A7E63CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC414E74-6092-4E75-8343-43290FEAFF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12576" tabRatio="714" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="345">
   <si>
     <t>Name</t>
   </si>
@@ -774,9 +774,6 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>WSDE_Water Rights</t>
-  </si>
-  <si>
     <t>Washington Water Rights</t>
   </si>
   <si>
@@ -789,9 +786,6 @@
     <t>Adjudicated/Allocated</t>
   </si>
   <si>
-    <t>WSDE_Allocation All</t>
-  </si>
-  <si>
     <t xml:space="preserve">Washington State Department of Ecology </t>
   </si>
   <si>
@@ -813,13 +807,7 @@
     <t>https://github.com/WSWCWaterDataExchange/MappingStatesDataToWaDE2.0/tree/master/Washington</t>
   </si>
   <si>
-    <t>WSDE</t>
-  </si>
-  <si>
     <t>360-407-6000</t>
-  </si>
-  <si>
-    <t>Concacenate 'WA' with a counter.</t>
   </si>
   <si>
     <t>D_Point_ID</t>
@@ -1014,9 +1002,6 @@
   </si>
   <si>
     <t>12/31</t>
-  </si>
-  <si>
-    <t>04/01/2020</t>
   </si>
   <si>
     <t>Check units of InstantaneousUnitCode, convert Instantae to CFS if not</t>
@@ -1152,6 +1137,30 @@
   </si>
   <si>
     <t>Have to convert from epsg:2927 - to - epsg:4326 in order for lat and long to work in WaDE 2.0.</t>
+  </si>
+  <si>
+    <t>WAwr_M1</t>
+  </si>
+  <si>
+    <t>WAwr_V1</t>
+  </si>
+  <si>
+    <t>WAwr_O1</t>
+  </si>
+  <si>
+    <t>WAwr_WS' with a counter.</t>
+  </si>
+  <si>
+    <t>WAwr_S + counter</t>
+  </si>
+  <si>
+    <t>*get from watersource.csv</t>
+  </si>
+  <si>
+    <t>*get from sites.csv</t>
+  </si>
+  <si>
+    <t>03/30/2022</t>
   </si>
 </sst>
 </file>
@@ -2620,7 +2629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7154D4B-C952-456C-B506-1C3DB2041E3D}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -2635,7 +2644,7 @@
         <v>240</v>
       </c>
       <c r="B1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2643,7 +2652,7 @@
         <v>241</v>
       </c>
       <c r="B2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2651,17 +2660,17 @@
         <v>242</v>
       </c>
       <c r="B6" s="84" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" s="84" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" s="84" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2672,22 +2681,22 @@
         <v>243</v>
       </c>
       <c r="B13" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -2706,7 +2715,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2809,7 +2818,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="61" t="s">
-        <v>244</v>
+        <v>337</v>
       </c>
       <c r="F4" s="45"/>
       <c r="G4" s="46"/>
@@ -2837,7 +2846,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="21"/>
@@ -2975,7 +2984,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
@@ -3003,7 +3012,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
@@ -3031,7 +3040,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
@@ -3059,7 +3068,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3156,7 +3165,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>249</v>
+        <v>338</v>
       </c>
       <c r="F4" s="45"/>
       <c r="G4" s="46"/>
@@ -3436,7 +3445,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3539,7 +3548,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>257</v>
+        <v>339</v>
       </c>
       <c r="F4" s="45"/>
       <c r="G4" s="46"/>
@@ -3567,7 +3576,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="21"/>
@@ -3595,7 +3604,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="21"/>
@@ -3623,7 +3632,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="21"/>
@@ -3651,7 +3660,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="21"/>
@@ -3679,7 +3688,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="21"/>
@@ -3707,7 +3716,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
@@ -3735,7 +3744,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
@@ -3763,7 +3772,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
@@ -3815,7 +3824,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3902,7 +3911,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>40</v>
       </c>
@@ -3916,7 +3925,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="49" t="s">
-        <v>259</v>
+        <v>340</v>
       </c>
       <c r="F4" s="45" t="s">
         <v>38</v>
@@ -4036,7 +4045,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="71" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>38</v>
@@ -4102,7 +4111,7 @@
         <v>38</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H10" s="23"/>
       <c r="I10" s="17" t="s">
@@ -4133,7 +4142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E7F0DF-14BE-4BB8-BB6C-8815808B0B66}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -4233,7 +4242,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="49" t="s">
-        <v>259</v>
+        <v>341</v>
       </c>
       <c r="F4" s="45"/>
       <c r="G4" s="46"/>
@@ -4259,11 +4268,11 @@
         <v>38</v>
       </c>
       <c r="E5" s="73" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="21" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="18" t="s">
@@ -4287,11 +4296,11 @@
         <v>20</v>
       </c>
       <c r="E6" s="73" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="27" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="18" t="s">
@@ -4345,7 +4354,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="27"/>
@@ -4489,13 +4498,13 @@
         <v>38</v>
       </c>
       <c r="E13" s="78" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F13" s="78" t="s">
         <v>38</v>
       </c>
       <c r="G13" s="79" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I13" s="80" t="s">
         <v>122</v>
@@ -4518,13 +4527,13 @@
         <v>38</v>
       </c>
       <c r="E14" s="78" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F14" s="78" t="s">
         <v>38</v>
       </c>
       <c r="G14" s="79" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="I14" s="80">
         <v>-1067.700435</v>
@@ -4595,7 +4604,7 @@
     </row>
     <row r="17" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="53" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B17" s="54" t="s">
         <v>16</v>
@@ -4613,13 +4622,13 @@
         <v>38</v>
       </c>
       <c r="I17" s="94" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="J17" s="83"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="53" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B18" s="54" t="s">
         <v>67</v>
@@ -4653,7 +4662,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="71" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F19" s="26" t="s">
         <v>38</v>
@@ -4689,7 +4698,7 @@
         <v>38</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H20" s="23"/>
       <c r="I20" s="18">
@@ -4737,13 +4746,13 @@
         <v>20</v>
       </c>
       <c r="E22" s="95" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F22" s="26" t="s">
         <v>38</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="18" t="s">
@@ -4767,7 +4776,7 @@
         <v>20</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F23" s="26" t="s">
         <v>38</v>
@@ -4848,8 +4857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F32" sqref="F31:F32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E35" sqref="A35:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5105,7 +5114,9 @@
       <c r="D9" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="60"/>
+      <c r="E9" s="60" t="s">
+        <v>342</v>
+      </c>
       <c r="F9" s="36"/>
       <c r="G9" s="50"/>
       <c r="H9" s="40" t="s">
@@ -5131,7 +5142,9 @@
       <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="62"/>
+      <c r="E10" s="62" t="s">
+        <v>337</v>
+      </c>
       <c r="F10" s="26"/>
       <c r="G10" s="27"/>
       <c r="H10" s="40" t="s">
@@ -5157,7 +5170,9 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="18"/>
+      <c r="E11" s="18" t="s">
+        <v>343</v>
+      </c>
       <c r="F11" s="26"/>
       <c r="G11" s="27"/>
       <c r="H11" s="40" t="s">
@@ -5183,7 +5198,9 @@
       <c r="D12" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="100"/>
+      <c r="E12" s="100" t="s">
+        <v>338</v>
+      </c>
       <c r="F12" s="101"/>
       <c r="G12" s="102"/>
       <c r="H12" s="40" t="s">
@@ -5454,7 +5471,7 @@
     </row>
     <row r="21" spans="1:16" ht="36" x14ac:dyDescent="0.3">
       <c r="A21" s="103" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>69</v>
@@ -5466,11 +5483,11 @@
         <v>38</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F21" s="36"/>
       <c r="G21" s="27" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H21" s="40" t="s">
         <v>38</v>
@@ -5502,7 +5519,7 @@
         <v>38</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H22" s="40" t="s">
         <v>38</v>
@@ -5534,7 +5551,7 @@
         <v>38</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H23" s="40" t="s">
         <v>38</v>
@@ -5560,13 +5577,13 @@
         <v>38</v>
       </c>
       <c r="E24" s="59" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="F24" s="36" t="s">
         <v>38</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="H24" s="40" t="s">
         <v>38</v>
@@ -5598,7 +5615,7 @@
         <v>38</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H25" s="40" t="s">
         <v>38</v>
@@ -5668,7 +5685,7 @@
         <v>38</v>
       </c>
       <c r="E27" s="82" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F27" s="36" t="s">
         <v>38</v>
@@ -5700,7 +5717,7 @@
         <v>38</v>
       </c>
       <c r="E28" s="82" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F28" s="36" t="s">
         <v>38</v>
@@ -5736,7 +5753,7 @@
         <v>38</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H29" s="40" t="s">
         <v>38</v>
@@ -5750,7 +5767,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="103" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>69</v>
@@ -5768,7 +5785,7 @@
         <v>38</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H30" s="40" t="s">
         <v>38</v>
@@ -5794,13 +5811,13 @@
         <v>38</v>
       </c>
       <c r="E31" s="65" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F31" s="36" t="s">
         <v>38</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H31" s="40" t="s">
         <v>38</v>
@@ -5934,7 +5951,7 @@
         <v>38</v>
       </c>
       <c r="E35" s="64" t="s">
-        <v>314</v>
+        <v>344</v>
       </c>
       <c r="F35" s="36"/>
       <c r="G35" s="27"/>
@@ -6032,7 +6049,7 @@
         <v>38</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H38" s="39"/>
       <c r="I38" s="89" t="s">
@@ -6114,7 +6131,7 @@
     </row>
     <row r="41" spans="1:16" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>34</v>
@@ -6132,10 +6149,10 @@
         <v>38</v>
       </c>
       <c r="I41" s="89" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="J41" s="85" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
@@ -6146,7 +6163,7 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>34</v>
@@ -6164,10 +6181,10 @@
         <v>38</v>
       </c>
       <c r="I42" s="89" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="J42" s="85" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
@@ -6335,204 +6352,204 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="74" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B1" s="63"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="74" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B2" s="63"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="74" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B3" s="63"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="74" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B4" s="63"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="74" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B5" s="63"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="74" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B6" s="63"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="74" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B7" s="63"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="74" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="74" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="74" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="74" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="74" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="74" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="74" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="74" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="74" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="74" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="74" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="74" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="74" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="74" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="74" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="74" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="74" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="74" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="74" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="74" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="74" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="74" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="74" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="74" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="74" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="74" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="74" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="74" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="74" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="74" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="74" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="74" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/Washington/WaterAllocation/WA_Allocation Schema Mapping_WaDEQA.xlsx
+++ b/Washington/WaterAllocation/WA_Allocation Schema Mapping_WaDEQA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Washington\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC414E74-6092-4E75-8343-43290FEAFF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E50223-D4AC-4F70-9E06-338225F7BFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="347">
   <si>
     <t>Name</t>
   </si>
@@ -487,9 +487,6 @@
   </si>
   <si>
     <t>Water Administration for the State of Colorado</t>
-  </si>
-  <si>
-    <t>PrimaryUseCategory</t>
   </si>
   <si>
     <t>BeneficialUseCategory</t>
@@ -1161,6 +1158,15 @@
   </si>
   <si>
     <t>03/30/2022</t>
+  </si>
+  <si>
+    <t>AllocationUUID</t>
+  </si>
+  <si>
+    <t>WAwr_WR + counter</t>
+  </si>
+  <si>
+    <t>PrimaryBeneficialUseCategory</t>
   </si>
 </sst>
 </file>
@@ -1958,7 +1964,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2270,6 +2276,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2641,36 +2650,36 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="70" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="70" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="70" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B6" s="84" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" s="84" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" s="84" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2678,25 +2687,25 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="70" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -2715,7 +2724,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2757,10 +2766,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -2801,7 +2810,7 @@
         <v>11</v>
       </c>
       <c r="J3" s="66" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2818,7 +2827,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="61" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F4" s="45"/>
       <c r="G4" s="46"/>
@@ -2829,7 +2838,7 @@
         <v>139</v>
       </c>
       <c r="J4" s="66" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -2846,7 +2855,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="21"/>
@@ -2857,7 +2866,7 @@
         <v>108</v>
       </c>
       <c r="J5" s="66" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2874,7 +2883,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="21"/>
@@ -2885,7 +2894,7 @@
         <v>0.5</v>
       </c>
       <c r="J6" s="66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -2902,7 +2911,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="21"/>
@@ -2913,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="J7" s="66" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2930,7 +2939,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="21"/>
@@ -2938,10 +2947,10 @@
         <v>38</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J8" s="66" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -2958,7 +2967,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="21"/>
@@ -2967,7 +2976,7 @@
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="66" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -2984,7 +2993,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
@@ -2995,7 +3004,7 @@
         <v>143</v>
       </c>
       <c r="J10" s="66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="36" x14ac:dyDescent="0.3">
@@ -3012,7 +3021,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
@@ -3023,7 +3032,7 @@
         <v>107</v>
       </c>
       <c r="J11" s="66" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3040,7 +3049,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
@@ -3051,7 +3060,7 @@
         <v>109</v>
       </c>
       <c r="J12" s="66" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -3110,10 +3119,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3148,7 +3157,7 @@
         <v>16</v>
       </c>
       <c r="J3" s="66" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3165,7 +3174,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F4" s="45"/>
       <c r="G4" s="46"/>
@@ -3176,7 +3185,7 @@
         <v>140</v>
       </c>
       <c r="J4" s="66" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3204,7 +3213,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="66" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3232,7 +3241,7 @@
         <v>111</v>
       </c>
       <c r="J6" s="66" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3260,7 +3269,7 @@
         <v>110</v>
       </c>
       <c r="J7" s="66" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3288,7 +3297,7 @@
         <v>113</v>
       </c>
       <c r="J8" s="66" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3316,7 +3325,7 @@
         <v>114</v>
       </c>
       <c r="J9" s="66" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3344,7 +3353,7 @@
         <v>10</v>
       </c>
       <c r="J10" s="66" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3372,7 +3381,7 @@
         <v>112</v>
       </c>
       <c r="J11" s="66" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3400,7 +3409,7 @@
         <v>144</v>
       </c>
       <c r="J12" s="66" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.3">
@@ -3428,7 +3437,7 @@
         <v>115</v>
       </c>
       <c r="J13" s="66" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -3487,10 +3496,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3531,7 +3540,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="66" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -3548,7 +3557,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F4" s="45"/>
       <c r="G4" s="46"/>
@@ -3559,7 +3568,7 @@
         <v>126</v>
       </c>
       <c r="J4" s="66" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3576,7 +3585,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="21"/>
@@ -3587,7 +3596,7 @@
         <v>130</v>
       </c>
       <c r="J5" s="66" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3604,7 +3613,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="21"/>
@@ -3615,7 +3624,7 @@
         <v>129</v>
       </c>
       <c r="J6" s="66" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="48" x14ac:dyDescent="0.3">
@@ -3632,7 +3641,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="21"/>
@@ -3643,7 +3652,7 @@
         <v>127</v>
       </c>
       <c r="J7" s="66" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -3660,7 +3669,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="21"/>
@@ -3671,7 +3680,7 @@
         <v>147</v>
       </c>
       <c r="J8" s="66" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3688,7 +3697,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="21"/>
@@ -3699,7 +3708,7 @@
         <v>128</v>
       </c>
       <c r="J9" s="66" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="84" x14ac:dyDescent="0.3">
@@ -3716,7 +3725,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
@@ -3727,7 +3736,7 @@
         <v>148</v>
       </c>
       <c r="J10" s="66" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="36" x14ac:dyDescent="0.3">
@@ -3744,7 +3753,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="21"/>
@@ -3755,7 +3764,7 @@
         <v>127</v>
       </c>
       <c r="J11" s="66" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -3772,7 +3781,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21"/>
@@ -3783,7 +3792,7 @@
         <v>131</v>
       </c>
       <c r="J12" s="66" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
@@ -3866,10 +3875,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -3908,7 +3917,7 @@
         <v>34658</v>
       </c>
       <c r="J3" s="66" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -3925,7 +3934,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="49" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F4" s="45" t="s">
         <v>38</v>
@@ -3938,7 +3947,7 @@
         <v>116</v>
       </c>
       <c r="J4" s="66" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3955,7 +3964,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="71" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>38</v>
@@ -3968,7 +3977,7 @@
         <v>38</v>
       </c>
       <c r="J5" s="66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3985,7 +3994,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="71" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F6" s="22" t="s">
         <v>38</v>
@@ -3998,7 +4007,7 @@
         <v>38</v>
       </c>
       <c r="J6" s="66" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -4028,7 +4037,7 @@
         <v>118</v>
       </c>
       <c r="J7" s="66" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4045,7 +4054,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="71" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>38</v>
@@ -4055,10 +4064,10 @@
       </c>
       <c r="H8" s="23"/>
       <c r="I8" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J8" s="66" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4075,7 +4084,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="71" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>38</v>
@@ -4088,7 +4097,7 @@
         <v>17839</v>
       </c>
       <c r="J9" s="66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -4111,14 +4120,14 @@
         <v>38</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H10" s="23"/>
       <c r="I10" s="17" t="s">
         <v>108</v>
       </c>
       <c r="J10" s="66" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4185,10 +4194,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -4227,7 +4236,7 @@
         <v>39035</v>
       </c>
       <c r="J3" s="66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4242,7 +4251,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="49" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F4" s="45"/>
       <c r="G4" s="46"/>
@@ -4251,7 +4260,7 @@
         <v>119</v>
       </c>
       <c r="J4" s="66" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="192" x14ac:dyDescent="0.3">
@@ -4268,18 +4277,18 @@
         <v>38</v>
       </c>
       <c r="E5" s="73" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="18" t="s">
         <v>117</v>
       </c>
       <c r="J5" s="66" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="144" x14ac:dyDescent="0.3">
@@ -4296,18 +4305,18 @@
         <v>20</v>
       </c>
       <c r="E6" s="73" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="27" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="18" t="s">
         <v>124</v>
       </c>
       <c r="J6" s="66" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4324,7 +4333,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F7" s="26" t="s">
         <v>38</v>
@@ -4337,7 +4346,7 @@
         <v>38</v>
       </c>
       <c r="J7" s="67" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4354,7 +4363,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="27"/>
@@ -4363,7 +4372,7 @@
         <v>125</v>
       </c>
       <c r="J8" s="66" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -4380,7 +4389,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F9" s="26" t="s">
         <v>38</v>
@@ -4391,7 +4400,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="18"/>
       <c r="J9" s="66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.3">
@@ -4408,7 +4417,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F10" s="26" t="s">
         <v>38</v>
@@ -4421,7 +4430,7 @@
         <v>38</v>
       </c>
       <c r="J10" s="66" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4438,7 +4447,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F11" s="26" t="s">
         <v>38</v>
@@ -4451,7 +4460,7 @@
         <v>38</v>
       </c>
       <c r="J11" s="67" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4468,7 +4477,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F12" s="26" t="s">
         <v>38</v>
@@ -4481,7 +4490,7 @@
         <v>38</v>
       </c>
       <c r="J12" s="67" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="25" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4498,19 +4507,19 @@
         <v>38</v>
       </c>
       <c r="E13" s="78" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F13" s="78" t="s">
         <v>38</v>
       </c>
       <c r="G13" s="79" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I13" s="80" t="s">
         <v>122</v>
       </c>
       <c r="J13" s="81" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="25" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4527,19 +4536,19 @@
         <v>38</v>
       </c>
       <c r="E14" s="78" t="s">
+        <v>305</v>
+      </c>
+      <c r="F14" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="79" t="s">
         <v>306</v>
-      </c>
-      <c r="F14" s="78" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="79" t="s">
-        <v>307</v>
       </c>
       <c r="I14" s="80">
         <v>-1067.700435</v>
       </c>
       <c r="J14" s="81" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4556,7 +4565,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F15" s="26" t="s">
         <v>38</v>
@@ -4569,7 +4578,7 @@
         <v>38</v>
       </c>
       <c r="J15" s="66" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4586,7 +4595,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F16" s="26" t="s">
         <v>38</v>
@@ -4599,12 +4608,12 @@
         <v>38</v>
       </c>
       <c r="J16" s="66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="53" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B17" s="54" t="s">
         <v>16</v>
@@ -4622,13 +4631,13 @@
         <v>38</v>
       </c>
       <c r="I17" s="94" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J17" s="83"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="53" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B18" s="54" t="s">
         <v>67</v>
@@ -4662,7 +4671,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="71" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F19" s="26" t="s">
         <v>38</v>
@@ -4675,7 +4684,7 @@
         <v>120</v>
       </c>
       <c r="J19" s="66" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -4698,14 +4707,14 @@
         <v>38</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H20" s="23"/>
       <c r="I20" s="18">
         <v>3703994</v>
       </c>
       <c r="J20" s="66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -4729,7 +4738,7 @@
         <v>123</v>
       </c>
       <c r="J21" s="67" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="84" x14ac:dyDescent="0.3">
@@ -4746,20 +4755,20 @@
         <v>20</v>
       </c>
       <c r="E22" s="95" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F22" s="26" t="s">
         <v>38</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="18" t="s">
         <v>121</v>
       </c>
       <c r="J22" s="66" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4776,7 +4785,7 @@
         <v>20</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F23" s="26" t="s">
         <v>38</v>
@@ -4789,7 +4798,7 @@
         <v>141</v>
       </c>
       <c r="J23" s="66" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
@@ -4806,7 +4815,7 @@
         <v>38</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="27"/>
@@ -4815,7 +4824,7 @@
         <v>38</v>
       </c>
       <c r="J24" s="67" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
@@ -4841,7 +4850,7 @@
         <v>38</v>
       </c>
       <c r="J25" s="66" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -4855,10 +4864,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E35" sqref="A35:E35"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4900,10 +4909,10 @@
         <v>142</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -4938,7 +4947,7 @@
         <v>50004</v>
       </c>
       <c r="J3" s="85" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
@@ -4970,7 +4979,7 @@
         <v>43</v>
       </c>
       <c r="J4" s="85" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
@@ -5002,7 +5011,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="85" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
@@ -5034,7 +5043,7 @@
         <v>39035</v>
       </c>
       <c r="J6" s="85" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
@@ -5066,7 +5075,7 @@
         <v>63</v>
       </c>
       <c r="J7" s="85" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
@@ -5098,15 +5107,15 @@
         <v>371091</v>
       </c>
       <c r="J8" s="85" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="53" t="s">
-        <v>6</v>
+        <v>344</v>
       </c>
       <c r="B9" s="54" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C9" s="55" t="s">
         <v>38</v>
@@ -5114,52 +5123,46 @@
       <c r="D9" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="60" t="s">
-        <v>342</v>
+      <c r="E9" s="106" t="s">
+        <v>345</v>
       </c>
       <c r="F9" s="36"/>
       <c r="G9" s="50"/>
-      <c r="H9" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="85" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="H9" s="40"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="85"/>
+    </row>
+    <row r="10" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="62" t="s">
-        <v>337</v>
-      </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
+      <c r="C10" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="60" t="s">
+        <v>341</v>
+      </c>
+      <c r="F10" s="36"/>
+      <c r="G10" s="50"/>
       <c r="H10" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="89" t="s">
+      <c r="I10" s="88" t="s">
         <v>38</v>
       </c>
       <c r="J10" s="85" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>67</v>
@@ -5170,8 +5173,8 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>343</v>
+      <c r="E11" s="62" t="s">
+        <v>336</v>
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="27"/>
@@ -5182,104 +5185,100 @@
         <v>38</v>
       </c>
       <c r="J11" s="85" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="96" t="s">
+      <c r="A12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="85" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="97" t="s">
+      <c r="B13" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="98" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="99" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="100" t="s">
-        <v>338</v>
-      </c>
-      <c r="F12" s="101"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="85" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="53" t="s">
-        <v>151</v>
-      </c>
-      <c r="B13" s="54" t="s">
+      <c r="C13" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="99" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="100" t="s">
+        <v>337</v>
+      </c>
+      <c r="F13" s="101"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="85" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C14" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="D14" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="87">
+      <c r="E14" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="87">
         <v>5363</v>
       </c>
-      <c r="J13" s="85" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="J14" s="86" t="s">
-        <v>162</v>
+      <c r="J14" s="85" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>68</v>
@@ -5291,7 +5290,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F15" s="26" t="s">
         <v>38</v>
@@ -5306,56 +5305,56 @@
         <v>133</v>
       </c>
       <c r="J15" s="86" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="J16" s="86" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="B17" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C17" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="D17" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="87" t="s">
-        <v>156</v>
-      </c>
-      <c r="J16" s="85" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="E17" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F17" s="26" t="s">
         <v>38</v>
@@ -5366,19 +5365,19 @@
       <c r="H17" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="J17" s="86" t="s">
-        <v>162</v>
+      <c r="I17" s="87" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" s="85" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>18</v>
@@ -5387,7 +5386,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F18" s="26" t="s">
         <v>38</v>
@@ -5399,18 +5398,18 @@
         <v>38</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="J18" s="85" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+      <c r="J18" s="86" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>18</v>
@@ -5419,7 +5418,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F19" s="26" t="s">
         <v>38</v>
@@ -5430,28 +5429,28 @@
       <c r="H19" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="J19" s="86" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I19" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="J19" s="85" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F20" s="26" t="s">
         <v>38</v>
@@ -5462,230 +5461,224 @@
       <c r="H20" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="17">
-        <v>5200</v>
-      </c>
-      <c r="J20" s="85" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="36" x14ac:dyDescent="0.3">
-      <c r="A21" s="103" t="s">
-        <v>334</v>
+      <c r="I20" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="86" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>152</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="F21" s="36"/>
+        <v>159</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>38</v>
+      </c>
       <c r="G21" s="27" t="s">
-        <v>311</v>
+        <v>38</v>
       </c>
       <c r="H21" s="40" t="s">
         <v>38</v>
       </c>
       <c r="I21" s="17">
-        <v>1</v>
+        <v>5200</v>
       </c>
       <c r="J21" s="85" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>86</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="36" x14ac:dyDescent="0.3">
+      <c r="A22" s="103" t="s">
+        <v>333</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>38</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="F22" s="36"/>
       <c r="G22" s="27" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="H22" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="17" t="s">
-        <v>136</v>
+      <c r="I22" s="17">
+        <v>1</v>
       </c>
       <c r="J22" s="85" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="65" t="s">
         <v>38</v>
       </c>
       <c r="F23" s="36" t="s">
         <v>38</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="H23" s="40" t="s">
         <v>38</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J23" s="85" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="59" t="s">
-        <v>315</v>
+      <c r="E24" s="62" t="s">
+        <v>38</v>
       </c>
       <c r="F24" s="36" t="s">
         <v>38</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="H24" s="40" t="s">
         <v>38</v>
       </c>
       <c r="I24" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="J24" s="85" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="59" t="s">
+        <v>314</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="H25" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="J24" s="85" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B25" s="6" t="s">
+      <c r="J25" s="85" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="H25" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="J25" s="85" t="s">
-        <v>204</v>
-      </c>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>18</v>
+      <c r="C26" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="F26" s="36" t="s">
         <v>38</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>38</v>
+        <v>261</v>
       </c>
       <c r="H26" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="I26" s="89" t="s">
-        <v>38</v>
+      <c r="I26" s="17" t="s">
+        <v>156</v>
       </c>
       <c r="J26" s="85" t="s">
-        <v>238</v>
-      </c>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
+        <v>203</v>
+      </c>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="82" t="s">
-        <v>309</v>
+        <v>20</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>159</v>
       </c>
       <c r="F27" s="36" t="s">
         <v>38</v>
@@ -5696,16 +5689,22 @@
       <c r="H27" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="I27" s="90">
-        <v>44196</v>
+      <c r="I27" s="89" t="s">
+        <v>38</v>
       </c>
       <c r="J27" s="85" t="s">
-        <v>205</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>106</v>
@@ -5729,159 +5728,153 @@
         <v>38</v>
       </c>
       <c r="I28" s="90">
-        <v>43831</v>
+        <v>44196</v>
       </c>
       <c r="J28" s="85" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="65"/>
+        <v>38</v>
+      </c>
+      <c r="E29" s="82" t="s">
+        <v>307</v>
+      </c>
       <c r="F29" s="36" t="s">
         <v>38</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>314</v>
+        <v>38</v>
       </c>
       <c r="H29" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="I29" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="J29" s="86" t="s">
-        <v>162</v>
+      <c r="I29" s="90">
+        <v>43831</v>
+      </c>
+      <c r="J29" s="85" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="103" t="s">
-        <v>335</v>
+      <c r="A30" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>38</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E30" s="65"/>
       <c r="F30" s="36" t="s">
         <v>38</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="H30" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I30" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="J30" s="86" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="103" t="s">
+        <v>334</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="H31" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="17">
         <v>0</v>
       </c>
-      <c r="J30" s="85" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="65" t="s">
-        <v>263</v>
-      </c>
-      <c r="F31" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="H31" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I31" s="89" t="s">
-        <v>38</v>
-      </c>
       <c r="J31" s="85" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" s="53" customFormat="1" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>18</v>
+      <c r="C32" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="26" t="s">
-        <v>160</v>
+      <c r="E32" s="65" t="s">
+        <v>262</v>
       </c>
       <c r="F32" s="36" t="s">
         <v>38</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>38</v>
+        <v>311</v>
       </c>
       <c r="H32" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="I32" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="J32" s="86" t="s">
-        <v>162</v>
-      </c>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I32" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32" s="85" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F33" s="36" t="s">
         <v>38</v>
@@ -5895,13 +5888,19 @@
       <c r="I33" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="J33" s="85" t="s">
-        <v>235</v>
-      </c>
+      <c r="J33" s="86" t="s">
+        <v>161</v>
+      </c>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>15</v>
@@ -5913,7 +5912,7 @@
         <v>20</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F34" s="36" t="s">
         <v>38</v>
@@ -5928,90 +5927,90 @@
         <v>133</v>
       </c>
       <c r="J34" s="85" t="s">
-        <v>236</v>
-      </c>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="53"/>
+        <v>234</v>
+      </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="B35" s="54" t="s">
+      <c r="A35" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="F35" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="J35" s="85" t="s">
+        <v>235</v>
+      </c>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="53"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="64" t="s">
-        <v>344</v>
-      </c>
-      <c r="F35" s="36"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I35" s="91">
+      <c r="C36" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="64" t="s">
+        <v>343</v>
+      </c>
+      <c r="F36" s="36"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="91">
         <v>43874</v>
       </c>
-      <c r="J35" s="85" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="F36" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H36" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I36" s="92">
-        <v>33187</v>
-      </c>
-      <c r="J36" s="86" t="s">
-        <v>162</v>
+      <c r="J36" s="85" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F37" s="36" t="s">
         <v>38</v>
@@ -6022,16 +6021,16 @@
       <c r="H37" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="I37" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="J37" s="85" t="s">
-        <v>209</v>
+      <c r="I37" s="92">
+        <v>33187</v>
+      </c>
+      <c r="J37" s="86" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>69</v>
@@ -6043,75 +6042,69 @@
         <v>38</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="F38" s="36" t="s">
         <v>38</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="H38" s="39"/>
+        <v>38</v>
+      </c>
+      <c r="H38" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="I38" s="89" t="s">
         <v>38</v>
       </c>
       <c r="J38" s="85" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" s="53" customFormat="1" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="F39" s="36" t="s">
         <v>38</v>
       </c>
       <c r="G39" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H39" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I39" s="17" t="s">
-        <v>133</v>
+        <v>312</v>
+      </c>
+      <c r="H39" s="39"/>
+      <c r="I39" s="89" t="s">
+        <v>38</v>
       </c>
       <c r="J39" s="85" t="s">
-        <v>239</v>
-      </c>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F40" s="36" t="s">
         <v>38</v>
@@ -6122,16 +6115,22 @@
       <c r="H40" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="I40" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="J40" s="86" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I40" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="J40" s="85" t="s">
+        <v>238</v>
+      </c>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>328</v>
+        <v>96</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>34</v>
@@ -6139,31 +6138,31 @@
       <c r="C41" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" s="105"/>
-      <c r="F41" s="105"/>
-      <c r="G41" s="104"/>
+      <c r="D41" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>38</v>
+      </c>
       <c r="H41" s="40" t="s">
         <v>38</v>
       </c>
       <c r="I41" s="89" t="s">
-        <v>329</v>
-      </c>
-      <c r="J41" s="85" t="s">
-        <v>330</v>
-      </c>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="J41" s="86" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>34</v>
@@ -6181,155 +6180,187 @@
         <v>38</v>
       </c>
       <c r="I42" s="89" t="s">
+        <v>328</v>
+      </c>
+      <c r="J42" s="85" t="s">
         <v>329</v>
       </c>
-      <c r="J42" s="85" t="s">
-        <v>330</v>
-      </c>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>89</v>
+        <v>327</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="F43" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G43" s="27" t="s">
-        <v>38</v>
-      </c>
+      <c r="D43" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="105"/>
+      <c r="F43" s="105"/>
+      <c r="G43" s="104"/>
       <c r="H43" s="40" t="s">
         <v>38</v>
       </c>
       <c r="I43" s="89" t="s">
-        <v>38</v>
+        <v>328</v>
       </c>
       <c r="J43" s="85" t="s">
-        <v>211</v>
+        <v>329</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="F44" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="J44" s="85" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E44" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="F44" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H44" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I44" s="17" t="s">
+      <c r="E45" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="F45" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="J44" s="86" t="s">
-        <v>162</v>
-      </c>
-      <c r="K44" s="53"/>
-      <c r="L44" s="53"/>
-      <c r="M44" s="53"/>
-      <c r="N44" s="53"/>
-      <c r="O44" s="53"/>
-      <c r="P44" s="53"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="B45" s="54" t="s">
+      <c r="J45" s="86" t="s">
+        <v>161</v>
+      </c>
+      <c r="K45" s="53"/>
+      <c r="L45" s="53"/>
+      <c r="M45" s="53"/>
+      <c r="N45" s="53"/>
+      <c r="O45" s="53"/>
+      <c r="P45" s="53"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="53" t="s">
+        <v>346</v>
+      </c>
+      <c r="B46" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="C45" s="55" t="s">
+      <c r="C46" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="57" t="s">
+      <c r="D46" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="F45" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H45" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I45" s="87" t="s">
+      <c r="E46" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="F46" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="87" t="s">
         <v>132</v>
       </c>
-      <c r="J45" s="85" t="s">
+      <c r="J46" s="85" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="F47" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="J47" s="85" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E46" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="F46" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G46" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H46" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I46" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="J46" s="85" t="s">
-        <v>213</v>
-      </c>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:P46">
-    <sortCondition ref="A13:A46"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:P47">
+    <sortCondition ref="A14:A47"/>
   </sortState>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6352,204 +6383,204 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="74" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B1" s="63"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="74" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B2" s="63"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="74" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B3" s="63"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="74" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B4" s="63"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="74" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B5" s="63"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="74" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B6" s="63"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="74" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B7" s="63"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="74" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="74" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="74" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="74" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="74" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="74" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="74" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="74" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="74" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="74" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="74" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="74" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="74" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="74" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="74" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="74" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="74" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="74" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="74" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="74" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="74" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="74" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="74" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="74" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="74" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="74" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="74" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="74" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="74" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="74" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="74" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/Washington/WaterAllocation/WA_Allocation Schema Mapping_WaDEQA.xlsx
+++ b/Washington/WaterAllocation/WA_Allocation Schema Mapping_WaDEQA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Washington\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E50223-D4AC-4F70-9E06-338225F7BFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210EE60C-3E40-441B-8D7F-7272E76A9321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="1" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -522,9 +522,6 @@
     <t>(blank)</t>
   </si>
   <si>
-    <t>Water Rights</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
@@ -771,16 +768,10 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>Washington Water Rights</t>
-  </si>
-  <si>
     <t>https://ecology.wa.gov/Water-Shorelines/Water-supply/Water-rights</t>
   </si>
   <si>
     <t xml:space="preserve">Surface Ground </t>
-  </si>
-  <si>
-    <t>Adjudicated/Allocated</t>
   </si>
   <si>
     <t xml:space="preserve">Washington State Department of Ecology </t>
@@ -1167,6 +1158,15 @@
   </si>
   <si>
     <t>PrimaryBeneficialUseCategory</t>
+  </si>
+  <si>
+    <t>The Department of Ecology's Water Resources Program maintains for the State of Washington various documents and records related to existing or requested water rights and water claims. Existing water rights include Certificates and Permits; a Certificate is a water right that has been perfected where as a Permit is an authorization from the State for water use that has not been perfected as yet. An Application is a request for water use that has not as yet been given authorization and Claims are documents submitted to the State during past Claims Registries authorized by the legislature. Pertinent information contained within these documents has been put into the Water Right Tracking System (WRTS) database. The spatial components (place of water use and the source location) of these documents have been put into the Geographic Water right Information System (GWIS) database. Please read the following section describing the legalities concerning the use of this information.</t>
+  </si>
+  <si>
+    <t>Washington Water Rights Method</t>
+  </si>
+  <si>
+    <t>Legal Processes</t>
   </si>
 </sst>
 </file>
@@ -1964,7 +1964,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2020,19 +2020,13 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2137,12 +2131,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2176,14 +2164,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2244,9 +2229,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2277,9 +2259,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2644,68 +2627,68 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="70" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="66" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="66" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="66" t="s">
         <v>239</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="66" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6" s="79" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="79" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="79" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="70" t="s">
-        <v>240</v>
-      </c>
-      <c r="B2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="70" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="78"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="66" t="s">
         <v>241</v>
       </c>
-      <c r="B6" s="84" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="84" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="84" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="83"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="70" t="s">
-        <v>242</v>
-      </c>
       <c r="B13" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -2723,8 +2706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2606DDD-D901-4365-BB8D-3E6142C84460}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2794,13 +2777,13 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="35" t="s">
+      <c r="E3" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="33" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="9" t="s">
@@ -2809,36 +2792,36 @@
       <c r="I3" s="17">
         <v>11</v>
       </c>
-      <c r="J3" s="66" t="s">
-        <v>172</v>
+      <c r="J3" s="62" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="61" t="s">
-        <v>336</v>
-      </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="46"/>
+      <c r="C4" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>333</v>
+      </c>
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
       <c r="H4" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="J4" s="66" t="s">
-        <v>191</v>
+      <c r="J4" s="62" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -2855,18 +2838,18 @@
         <v>20</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
+        <v>243</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="J5" s="66" t="s">
-        <v>217</v>
+      <c r="J5" s="62" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2882,19 +2865,19 @@
       <c r="D6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="69">
+      <c r="I6" s="65">
         <v>0.5</v>
       </c>
-      <c r="J6" s="66" t="s">
-        <v>174</v>
+      <c r="J6" s="62" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -2910,19 +2893,19 @@
       <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="66" t="s">
-        <v>173</v>
+      <c r="I7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="62" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2938,19 +2921,19 @@
       <c r="D8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="J8" s="66" t="s">
-        <v>219</v>
+      <c r="I8" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="J8" s="62" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -2966,17 +2949,17 @@
       <c r="D9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
+      <c r="E9" s="100" t="s">
+        <v>344</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="18"/>
-      <c r="J9" s="66" t="s">
-        <v>214</v>
+      <c r="J9" s="62" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -2992,22 +2975,22 @@
       <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
+      <c r="E10" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I10" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="J10" s="66" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="36" x14ac:dyDescent="0.3">
+      <c r="J10" s="62" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -3020,19 +3003,19 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
+      <c r="E11" s="101" t="s">
+        <v>242</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I11" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="J11" s="66" t="s">
-        <v>175</v>
+      <c r="J11" s="62" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3048,27 +3031,30 @@
       <c r="D12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
+      <c r="E12" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="J12" s="66" t="s">
-        <v>218</v>
+      <c r="J12" s="62" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:A26">
     <sortCondition ref="A18:A26"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="E11" r:id="rId1" xr:uid="{5CFECAD6-BA35-4C1B-8388-D8C0A8E9AB4B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3147,45 +3133,45 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
       <c r="H3" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I3" s="17">
         <v>16</v>
       </c>
-      <c r="J3" s="66" t="s">
-        <v>172</v>
+      <c r="J3" s="62" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>337</v>
-      </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="46"/>
+      <c r="C4" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>334</v>
+      </c>
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
       <c r="H4" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="J4" s="66" t="s">
-        <v>176</v>
+      <c r="J4" s="62" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3204,16 +3190,16 @@
       <c r="E5" s="17">
         <v>1</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I5" s="17">
         <v>1</v>
       </c>
-      <c r="J5" s="66" t="s">
-        <v>177</v>
+      <c r="J5" s="62" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3232,16 +3218,16 @@
       <c r="E6" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I6" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="J6" s="66" t="s">
-        <v>178</v>
+      <c r="J6" s="62" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3260,16 +3246,16 @@
       <c r="E7" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I7" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="J7" s="66" t="s">
-        <v>220</v>
+      <c r="J7" s="62" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3288,16 +3274,16 @@
       <c r="E8" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="J8" s="66" t="s">
-        <v>221</v>
+      <c r="J8" s="62" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3316,16 +3302,16 @@
       <c r="E9" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="J9" s="66" t="s">
-        <v>215</v>
+      <c r="J9" s="62" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3344,16 +3330,16 @@
       <c r="E10" s="17">
         <v>10</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I10" s="17">
         <v>10</v>
       </c>
-      <c r="J10" s="66" t="s">
-        <v>179</v>
+      <c r="J10" s="62" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3372,16 +3358,16 @@
       <c r="E11" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I11" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="J11" s="66" t="s">
-        <v>222</v>
+      <c r="J11" s="62" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3400,16 +3386,16 @@
       <c r="E12" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="J12" s="66" t="s">
-        <v>223</v>
+      <c r="J12" s="62" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.3">
@@ -3428,16 +3414,16 @@
       <c r="E13" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I13" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="J13" s="66" t="s">
-        <v>216</v>
+      <c r="J13" s="62" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3524,13 +3510,13 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="32" t="s">
+      <c r="E3" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="30" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="9" t="s">
@@ -3539,36 +3525,36 @@
       <c r="I3" s="18">
         <v>1</v>
       </c>
-      <c r="J3" s="66" t="s">
-        <v>172</v>
+      <c r="J3" s="62" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>338</v>
-      </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="46"/>
+      <c r="C4" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>335</v>
+      </c>
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
       <c r="H4" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="J4" s="66" t="s">
-        <v>180</v>
+      <c r="J4" s="62" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3585,18 +3571,18 @@
         <v>38</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
+        <v>248</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I5" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="J5" s="66" t="s">
-        <v>181</v>
+      <c r="J5" s="62" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3613,18 +3599,18 @@
         <v>38</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
+        <v>247</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I6" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="J6" s="66" t="s">
-        <v>182</v>
+      <c r="J6" s="62" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="48" x14ac:dyDescent="0.3">
@@ -3641,18 +3627,18 @@
         <v>38</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
+        <v>250</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I7" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="J7" s="66" t="s">
-        <v>183</v>
+      <c r="J7" s="62" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -3669,18 +3655,18 @@
         <v>38</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
+        <v>244</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I8" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="J8" s="66" t="s">
-        <v>184</v>
+      <c r="J8" s="62" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3697,18 +3683,18 @@
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
+        <v>251</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="J9" s="66" t="s">
-        <v>185</v>
+      <c r="J9" s="62" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="84" x14ac:dyDescent="0.3">
@@ -3725,18 +3711,18 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
+        <v>245</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="J10" s="66" t="s">
-        <v>186</v>
+      <c r="J10" s="62" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="36" x14ac:dyDescent="0.3">
@@ -3753,18 +3739,18 @@
         <v>38</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
+        <v>246</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I11" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="J11" s="66" t="s">
-        <v>187</v>
+      <c r="J11" s="62" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -3781,18 +3767,18 @@
         <v>38</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
+        <v>249</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I12" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J12" s="66" t="s">
-        <v>188</v>
+      <c r="J12" s="62" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
@@ -3903,51 +3889,51 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="19"/>
+      <c r="E3" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="9"/>
       <c r="I3" s="17">
         <v>34658</v>
       </c>
-      <c r="J3" s="66" t="s">
-        <v>172</v>
+      <c r="J3" s="62" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="49" t="s">
-        <v>339</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="19"/>
+      <c r="C4" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>336</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="9"/>
       <c r="I4" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="J4" s="66" t="s">
-        <v>190</v>
+      <c r="J4" s="62" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3963,21 +3949,21 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="F5" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="66" t="s">
-        <v>164</v>
+      <c r="F5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="62" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -3993,21 +3979,21 @@
       <c r="D6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="E6" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="F6" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="66" t="s">
-        <v>224</v>
+      <c r="F6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="62" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -4023,21 +4009,21 @@
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="19"/>
+      <c r="F7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="9"/>
       <c r="I7" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="J7" s="66" t="s">
-        <v>225</v>
+      <c r="J7" s="62" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4053,21 +4039,21 @@
       <c r="D8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="71" t="s">
-        <v>260</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="23"/>
+      <c r="E8" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="21"/>
       <c r="I8" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="J8" s="66" t="s">
-        <v>192</v>
+        <v>188</v>
+      </c>
+      <c r="J8" s="62" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4083,21 +4069,21 @@
       <c r="D9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="71" t="s">
+      <c r="E9" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="F9" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="19"/>
+      <c r="F9" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="9"/>
       <c r="I9" s="17">
         <v>17839</v>
       </c>
-      <c r="J9" s="66" t="s">
-        <v>193</v>
+      <c r="J9" s="62" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -4113,21 +4099,21 @@
       <c r="D10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="H10" s="23"/>
+      <c r="E10" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H10" s="21"/>
       <c r="I10" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="J10" s="66" t="s">
-        <v>226</v>
+      <c r="J10" s="62" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4222,45 +4208,45 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="19"/>
+      <c r="E3" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="9"/>
       <c r="I3" s="18">
         <v>39035</v>
       </c>
-      <c r="J3" s="66" t="s">
-        <v>162</v>
+      <c r="J3" s="62" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="49" t="s">
-        <v>340</v>
-      </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="19"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>337</v>
+      </c>
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="J4" s="66" t="s">
-        <v>163</v>
+      <c r="J4" s="62" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="192" x14ac:dyDescent="0.3">
@@ -4276,19 +4262,19 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="73" t="s">
-        <v>258</v>
-      </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21" t="s">
-        <v>317</v>
-      </c>
-      <c r="H5" s="19"/>
+      <c r="E5" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="H5" s="9"/>
       <c r="I5" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="66" t="s">
-        <v>231</v>
+      <c r="J5" s="62" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="144" x14ac:dyDescent="0.3">
@@ -4304,19 +4290,19 @@
       <c r="D6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="73" t="s">
-        <v>256</v>
-      </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27" t="s">
-        <v>316</v>
-      </c>
-      <c r="H6" s="19"/>
+      <c r="E6" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="H6" s="9"/>
       <c r="I6" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="J6" s="66" t="s">
-        <v>227</v>
+      <c r="J6" s="62" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4332,21 +4318,21 @@
       <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="F7" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="67" t="s">
-        <v>161</v>
+      <c r="F7" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="63" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4362,17 +4348,17 @@
       <c r="D8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="23"/>
+      <c r="E8" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="21"/>
       <c r="I8" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="J8" s="66" t="s">
-        <v>165</v>
+      <c r="J8" s="62" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30.6" x14ac:dyDescent="0.3">
@@ -4388,19 +4374,19 @@
       <c r="D9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="F9" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="19"/>
+      <c r="F9" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="9"/>
       <c r="I9" s="18"/>
-      <c r="J9" s="66" t="s">
-        <v>164</v>
+      <c r="J9" s="62" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.3">
@@ -4416,21 +4402,21 @@
       <c r="D10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="F10" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="66" t="s">
-        <v>166</v>
+      <c r="F10" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="62" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4446,21 +4432,21 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="F11" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="67" t="s">
-        <v>161</v>
+      <c r="F11" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="63" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4476,79 +4462,79 @@
       <c r="D12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="F12" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="67" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="25" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+      <c r="F12" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="63" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="23" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="75" t="s">
+      <c r="B13" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="76" t="s">
+      <c r="C13" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="78" t="s">
-        <v>305</v>
-      </c>
-      <c r="F13" s="78" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="79" t="s">
-        <v>304</v>
-      </c>
-      <c r="I13" s="80" t="s">
+      <c r="D13" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="73" t="s">
+        <v>302</v>
+      </c>
+      <c r="F13" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="74" t="s">
+        <v>301</v>
+      </c>
+      <c r="I13" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="J13" s="81" t="s">
+      <c r="J13" s="76" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="23" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="73" t="s">
+        <v>302</v>
+      </c>
+      <c r="F14" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="74" t="s">
+        <v>303</v>
+      </c>
+      <c r="I14" s="75">
+        <v>-1067.700435</v>
+      </c>
+      <c r="J14" s="76" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="25" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="78" t="s">
-        <v>305</v>
-      </c>
-      <c r="F14" s="78" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="79" t="s">
-        <v>306</v>
-      </c>
-      <c r="I14" s="80">
-        <v>-1067.700435</v>
-      </c>
-      <c r="J14" s="81" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4564,21 +4550,21 @@
       <c r="D15" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="F15" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="66" t="s">
-        <v>228</v>
+      <c r="F15" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="62" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4594,70 +4580,70 @@
       <c r="D16" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="F16" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="66" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="53" t="s">
-        <v>330</v>
-      </c>
-      <c r="B17" s="54" t="s">
+      <c r="F16" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="62" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="51" t="s">
+        <v>327</v>
+      </c>
+      <c r="B17" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="94" t="s">
-        <v>331</v>
-      </c>
-      <c r="J17" s="83"/>
+      <c r="D17" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="89" t="s">
+        <v>328</v>
+      </c>
+      <c r="J17" s="78"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="53" t="s">
-        <v>332</v>
-      </c>
-      <c r="B18" s="54" t="s">
+      <c r="A18" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="B18" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="56" t="s">
+      <c r="D18" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="53"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="51"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
@@ -4670,21 +4656,21 @@
       <c r="D19" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="71" t="s">
-        <v>260</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="19"/>
+      <c r="E19" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="9"/>
       <c r="I19" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="J19" s="66" t="s">
-        <v>169</v>
+      <c r="J19" s="62" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -4700,21 +4686,21 @@
       <c r="D20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="H20" s="23"/>
+      <c r="E20" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="H20" s="21"/>
       <c r="I20" s="18">
         <v>3703994</v>
       </c>
-      <c r="J20" s="66" t="s">
-        <v>170</v>
+      <c r="J20" s="62" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -4730,15 +4716,15 @@
       <c r="D21" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="62"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="19"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="9"/>
       <c r="I21" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="J21" s="67" t="s">
-        <v>161</v>
+      <c r="J21" s="63" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="84" x14ac:dyDescent="0.3">
@@ -4754,21 +4740,21 @@
       <c r="D22" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="95" t="s">
-        <v>257</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>318</v>
-      </c>
-      <c r="H22" s="19"/>
+      <c r="E22" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="H22" s="9"/>
       <c r="I22" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="J22" s="66" t="s">
-        <v>229</v>
+      <c r="J22" s="62" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4784,24 +4770,24 @@
       <c r="D23" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="19"/>
+      <c r="E23" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="9"/>
       <c r="I23" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="J23" s="66" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J23" s="62" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>52</v>
       </c>
@@ -4814,43 +4800,43 @@
       <c r="D24" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J24" s="67" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="53" t="s">
+      <c r="F24" s="24"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J24" s="63" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="56" t="s">
+      <c r="D25" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="J25" s="66" t="s">
-        <v>190</v>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J25" s="62" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -4866,8 +4852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4924,240 +4910,240 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+    <row r="3" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="56" t="s">
+      <c r="C3" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="87">
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="82">
         <v>50004</v>
       </c>
-      <c r="J3" s="85" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="53" t="s">
+      <c r="J3" s="80" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="57" t="s">
+      <c r="C4" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="87">
+      <c r="E4" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="82">
         <v>43</v>
       </c>
-      <c r="J4" s="85" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="53" t="s">
+      <c r="J4" s="80" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="57" t="s">
+      <c r="C5" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="87">
+      <c r="E5" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="82">
         <v>1</v>
       </c>
-      <c r="J5" s="85" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
+      <c r="J5" s="80" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="57" t="s">
+      <c r="C6" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="87">
+      <c r="E6" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="82">
         <v>39035</v>
       </c>
-      <c r="J6" s="85" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53" t="s">
+      <c r="J6" s="80" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="57" t="s">
+      <c r="C7" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="87">
+      <c r="E7" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="82">
         <v>63</v>
       </c>
-      <c r="J7" s="85" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="53" t="s">
+      <c r="J7" s="80" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="57" t="s">
+      <c r="C8" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="87">
+      <c r="E8" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="82">
         <v>371091</v>
       </c>
-      <c r="J8" s="85" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="53" t="s">
-        <v>344</v>
-      </c>
-      <c r="B9" s="54" t="s">
+      <c r="J8" s="80" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="B9" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="106" t="s">
-        <v>345</v>
-      </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="85"/>
-    </row>
-    <row r="10" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="53" t="s">
+      <c r="C9" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="F9" s="34"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="80"/>
+    </row>
+    <row r="10" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="60" t="s">
-        <v>341</v>
-      </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="85" t="s">
-        <v>191</v>
+      <c r="C10" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="56" t="s">
+        <v>338</v>
+      </c>
+      <c r="F10" s="34"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="80" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -5173,19 +5159,19 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="62" t="s">
-        <v>336</v>
-      </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="85" t="s">
-        <v>194</v>
+      <c r="E11" s="58" t="s">
+        <v>333</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="80" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -5202,81 +5188,81 @@
         <v>38</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="85" t="s">
-        <v>195</v>
+        <v>339</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="80" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="98" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="99" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="100" t="s">
-        <v>337</v>
-      </c>
-      <c r="F13" s="101"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="85" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="53" t="s">
+      <c r="C13" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="94" t="s">
+        <v>334</v>
+      </c>
+      <c r="F13" s="95"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="80" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="F14" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="87">
+      <c r="F14" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="82">
         <v>5363</v>
       </c>
-      <c r="J14" s="85" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J14" s="80" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>94</v>
       </c>
@@ -5289,26 +5275,26 @@
       <c r="D15" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="F15" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="40" t="s">
+      <c r="F15" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="38" t="s">
         <v>38</v>
       </c>
       <c r="I15" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="J15" s="86" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J15" s="81" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>93</v>
       </c>
@@ -5321,55 +5307,55 @@
       <c r="D16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="F16" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="40" t="s">
+      <c r="F16" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="38" t="s">
         <v>38</v>
       </c>
       <c r="I16" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="J16" s="86" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="53" t="s">
+      <c r="J16" s="81" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="57" t="s">
+      <c r="D17" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="F17" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="87" t="s">
+      <c r="F17" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="82" t="s">
         <v>155</v>
       </c>
-      <c r="J17" s="85" t="s">
-        <v>233</v>
+      <c r="J17" s="80" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -5385,23 +5371,23 @@
       <c r="D18" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="F18" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="40" t="s">
+      <c r="F18" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="38" t="s">
         <v>38</v>
       </c>
       <c r="I18" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="J18" s="86" t="s">
-        <v>161</v>
+      <c r="J18" s="81" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -5417,26 +5403,26 @@
       <c r="D19" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="F19" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="40" t="s">
+      <c r="F19" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="38" t="s">
         <v>38</v>
       </c>
       <c r="I19" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="J19" s="85" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J19" s="80" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>88</v>
       </c>
@@ -5449,23 +5435,23 @@
       <c r="D20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="F20" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20" s="86" t="s">
-        <v>161</v>
+      <c r="F20" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="81" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -5481,28 +5467,28 @@
       <c r="D21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="F21" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="40" t="s">
+      <c r="F21" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="38" t="s">
         <v>38</v>
       </c>
       <c r="I21" s="17">
         <v>5200</v>
       </c>
-      <c r="J21" s="85" t="s">
-        <v>197</v>
+      <c r="J21" s="80" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="36" x14ac:dyDescent="0.3">
-      <c r="A22" s="103" t="s">
-        <v>333</v>
+      <c r="A22" s="97" t="s">
+        <v>330</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>69</v>
@@ -5513,21 +5499,21 @@
       <c r="D22" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="F22" s="36"/>
-      <c r="G22" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="H22" s="40" t="s">
+      <c r="E22" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F22" s="34"/>
+      <c r="G22" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="H22" s="38" t="s">
         <v>38</v>
       </c>
       <c r="I22" s="17">
         <v>1</v>
       </c>
-      <c r="J22" s="85" t="s">
-        <v>199</v>
+      <c r="J22" s="80" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -5543,23 +5529,23 @@
       <c r="D23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>315</v>
-      </c>
-      <c r="H23" s="40" t="s">
+      <c r="E23" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="H23" s="38" t="s">
         <v>38</v>
       </c>
       <c r="I23" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="J23" s="85" t="s">
-        <v>236</v>
+      <c r="J23" s="80" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -5575,23 +5561,23 @@
       <c r="D24" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="27" t="s">
-        <v>302</v>
-      </c>
-      <c r="H24" s="40" t="s">
+      <c r="E24" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="H24" s="38" t="s">
         <v>38</v>
       </c>
       <c r="I24" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="J24" s="85" t="s">
-        <v>201</v>
+      <c r="J24" s="80" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="24" x14ac:dyDescent="0.3">
@@ -5607,55 +5593,55 @@
       <c r="D25" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="59" t="s">
-        <v>314</v>
-      </c>
-      <c r="F25" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" s="27" t="s">
-        <v>314</v>
-      </c>
-      <c r="H25" s="40" t="s">
+      <c r="E25" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="H25" s="38" t="s">
         <v>38</v>
       </c>
       <c r="I25" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="J25" s="85" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J25" s="80" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>151</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="H26" s="40" t="s">
+      <c r="E26" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="H26" s="38" t="s">
         <v>38</v>
       </c>
       <c r="I26" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="J26" s="85" t="s">
-        <v>203</v>
+      <c r="J26" s="80" t="s">
+        <v>202</v>
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
@@ -5677,30 +5663,30 @@
       <c r="D27" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="F27" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I27" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="J27" s="85" t="s">
-        <v>237</v>
-      </c>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
+      <c r="F27" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="J27" s="80" t="s">
+        <v>236</v>
+      </c>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
@@ -5715,23 +5701,23 @@
       <c r="D28" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="82" t="s">
-        <v>308</v>
-      </c>
-      <c r="F28" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28" s="90">
+      <c r="E28" s="77" t="s">
+        <v>305</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" s="85">
         <v>44196</v>
       </c>
-      <c r="J28" s="85" t="s">
-        <v>204</v>
+      <c r="J28" s="80" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -5747,23 +5733,23 @@
       <c r="D29" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="82" t="s">
-        <v>307</v>
-      </c>
-      <c r="F29" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H29" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I29" s="90">
+      <c r="E29" s="77" t="s">
+        <v>304</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="85">
         <v>43831</v>
       </c>
-      <c r="J29" s="85" t="s">
-        <v>205</v>
+      <c r="J29" s="80" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -5779,26 +5765,26 @@
       <c r="D30" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="65"/>
-      <c r="F30" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="H30" s="40" t="s">
+      <c r="E30" s="61"/>
+      <c r="F30" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="H30" s="38" t="s">
         <v>38</v>
       </c>
       <c r="I30" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="J30" s="86" t="s">
-        <v>161</v>
+      <c r="J30" s="81" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="103" t="s">
-        <v>334</v>
+      <c r="A31" s="97" t="s">
+        <v>331</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>69</v>
@@ -5809,23 +5795,23 @@
       <c r="D31" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="H31" s="40" t="s">
+      <c r="E31" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="H31" s="38" t="s">
         <v>38</v>
       </c>
       <c r="I31" s="17">
         <v>0</v>
       </c>
-      <c r="J31" s="85" t="s">
-        <v>200</v>
+      <c r="J31" s="80" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
@@ -5835,32 +5821,32 @@
       <c r="B32" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="65" t="s">
-        <v>262</v>
-      </c>
-      <c r="F32" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="H32" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="J32" s="85" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E32" s="61" t="s">
+        <v>259</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H32" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32" s="80" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>101</v>
       </c>
@@ -5873,23 +5859,23 @@
       <c r="D33" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="26" t="s">
+      <c r="E33" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="F33" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H33" s="40" t="s">
+      <c r="F33" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" s="38" t="s">
         <v>38</v>
       </c>
       <c r="I33" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="J33" s="86" t="s">
-        <v>161</v>
+      <c r="J33" s="81" t="s">
+        <v>160</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -5911,23 +5897,23 @@
       <c r="D34" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="E34" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="F34" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G34" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H34" s="40" t="s">
+      <c r="F34" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" s="38" t="s">
         <v>38</v>
       </c>
       <c r="I34" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="J34" s="85" t="s">
-        <v>234</v>
+      <c r="J34" s="80" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
@@ -5943,57 +5929,57 @@
       <c r="D35" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="E35" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="F35" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H35" s="40" t="s">
+      <c r="F35" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" s="38" t="s">
         <v>38</v>
       </c>
       <c r="I35" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="J35" s="85" t="s">
-        <v>235</v>
-      </c>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="53"/>
+      <c r="J35" s="80" t="s">
+        <v>234</v>
+      </c>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="51"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="53" t="s">
+      <c r="A36" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="B36" s="54" t="s">
+      <c r="B36" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="64" t="s">
-        <v>343</v>
-      </c>
-      <c r="F36" s="36"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I36" s="91">
+      <c r="C36" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="60" t="s">
+        <v>340</v>
+      </c>
+      <c r="F36" s="34"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="86">
         <v>43874</v>
       </c>
-      <c r="J36" s="85" t="s">
-        <v>207</v>
+      <c r="J36" s="80" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
@@ -6009,23 +5995,23 @@
       <c r="D37" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E37" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="F37" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="92">
+      <c r="F37" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="87">
         <v>33187</v>
       </c>
-      <c r="J37" s="86" t="s">
-        <v>161</v>
+      <c r="J37" s="81" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -6041,23 +6027,23 @@
       <c r="D38" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="E38" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="F38" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H38" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I38" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="J38" s="85" t="s">
-        <v>208</v>
+      <c r="F38" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="J38" s="80" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
@@ -6073,24 +6059,24 @@
       <c r="D39" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E39" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F39" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G39" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="H39" s="39"/>
-      <c r="I39" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="J39" s="85" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E39" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="H39" s="37"/>
+      <c r="I39" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="J39" s="80" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>99</v>
       </c>
@@ -6103,23 +6089,23 @@
       <c r="D40" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="E40" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="F40" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G40" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H40" s="40" t="s">
+      <c r="F40" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40" s="38" t="s">
         <v>38</v>
       </c>
       <c r="I40" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="J40" s="85" t="s">
-        <v>238</v>
+      <c r="J40" s="80" t="s">
+        <v>237</v>
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
@@ -6141,28 +6127,28 @@
       <c r="D41" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E41" s="26" t="s">
+      <c r="E41" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="F41" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G41" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H41" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I41" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="J41" s="86" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F41" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I41" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="J41" s="81" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>34</v>
@@ -6173,17 +6159,17 @@
       <c r="D42" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="105"/>
-      <c r="F42" s="105"/>
-      <c r="G42" s="104"/>
-      <c r="H42" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I42" s="89" t="s">
-        <v>328</v>
-      </c>
-      <c r="J42" s="85" t="s">
-        <v>329</v>
+      <c r="E42" s="99"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="98"/>
+      <c r="H42" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I42" s="84" t="s">
+        <v>325</v>
+      </c>
+      <c r="J42" s="80" t="s">
+        <v>326</v>
       </c>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
@@ -6194,7 +6180,7 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>34</v>
@@ -6205,17 +6191,17 @@
       <c r="D43" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="105"/>
-      <c r="F43" s="105"/>
-      <c r="G43" s="104"/>
-      <c r="H43" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I43" s="89" t="s">
-        <v>328</v>
-      </c>
-      <c r="J43" s="85" t="s">
-        <v>329</v>
+      <c r="E43" s="99"/>
+      <c r="F43" s="99"/>
+      <c r="G43" s="98"/>
+      <c r="H43" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="84" t="s">
+        <v>325</v>
+      </c>
+      <c r="J43" s="80" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
@@ -6231,23 +6217,23 @@
       <c r="D44" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E44" s="26" t="s">
+      <c r="E44" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="F44" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H44" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I44" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="J44" s="85" t="s">
-        <v>210</v>
+      <c r="F44" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="J44" s="80" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
@@ -6263,64 +6249,64 @@
       <c r="D45" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="26" t="s">
+      <c r="E45" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="F45" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H45" s="40" t="s">
+      <c r="F45" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" s="38" t="s">
         <v>38</v>
       </c>
       <c r="I45" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="J45" s="86" t="s">
-        <v>161</v>
-      </c>
-      <c r="K45" s="53"/>
-      <c r="L45" s="53"/>
-      <c r="M45" s="53"/>
-      <c r="N45" s="53"/>
-      <c r="O45" s="53"/>
-      <c r="P45" s="53"/>
+      <c r="J45" s="81" t="s">
+        <v>160</v>
+      </c>
+      <c r="K45" s="51"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="51"/>
+      <c r="N45" s="51"/>
+      <c r="O45" s="51"/>
+      <c r="P45" s="51"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="53" t="s">
-        <v>346</v>
-      </c>
-      <c r="B46" s="54" t="s">
+      <c r="A46" s="51" t="s">
+        <v>343</v>
+      </c>
+      <c r="B46" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="C46" s="55" t="s">
+      <c r="C46" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="57" t="s">
+      <c r="D46" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="26" t="s">
+      <c r="E46" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="F46" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G46" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H46" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I46" s="87" t="s">
+      <c r="F46" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="82" t="s">
         <v>132</v>
       </c>
-      <c r="J46" s="85" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J46" s="80" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>97</v>
       </c>
@@ -6333,23 +6319,23 @@
       <c r="D47" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E47" s="26" t="s">
+      <c r="E47" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="F47" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G47" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H47" s="40" t="s">
+      <c r="F47" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47" s="38" t="s">
         <v>38</v>
       </c>
       <c r="I47" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="J47" s="85" t="s">
-        <v>212</v>
+      <c r="J47" s="80" t="s">
+        <v>211</v>
       </c>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
@@ -6378,209 +6364,209 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" style="74" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" style="69" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="69" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" s="59"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="69" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="59"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="69" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3" s="59"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="69" t="s">
         <v>263</v>
       </c>
-      <c r="B1" s="63"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="74" t="s">
+      <c r="B4" s="59"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="69" t="s">
         <v>264</v>
       </c>
-      <c r="B2" s="63"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="74" t="s">
+      <c r="B5" s="59"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="69" t="s">
         <v>265</v>
       </c>
-      <c r="B3" s="63"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="74" t="s">
+      <c r="B6" s="59"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="69" t="s">
         <v>266</v>
       </c>
-      <c r="B4" s="63"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="74" t="s">
+      <c r="B7" s="59"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="69" t="s">
         <v>267</v>
       </c>
-      <c r="B5" s="63"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="74" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="69" t="s">
         <v>268</v>
       </c>
-      <c r="B6" s="63"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="74" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="69" t="s">
         <v>269</v>
       </c>
-      <c r="B7" s="63"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="74" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="69" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="74" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="69" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="74" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="69" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="74" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="69" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="74" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="69" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="74" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="69" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="74" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="69" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="74" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="69" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="74" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="69" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="74" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="69" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="74" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="69" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="74" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="69" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="74" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="69" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="74" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="69" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="74" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="69" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="74" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="69" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="74" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="69" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="74" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="69" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="74" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="69" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="74" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="69" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="74" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="69" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="74" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="69" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="74" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="69" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="74" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="69" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="74" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="69" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="74" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="69" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="74" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="69" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="74" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="69" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="74" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="69" t="s">
         <v>298</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="74" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="74" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="74" t="s">
-        <v>301</v>
       </c>
     </row>
   </sheetData>
